--- a/EX3/書籍.xlsx
+++ b/EX3/書籍.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C808BBB3-DF30-46FD-AE55-83A82BECF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://axiziidabashi-my.sharepoint.com/personal/22naka_rikito_axiziidabashi_onmicrosoft_com/Documents/ドキュメント/SQL_EX/EX3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C808BBB3-DF30-46FD-AE55-83A82BECF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD8E178-886A-4E9E-99F0-D22332E6E7C0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題" sheetId="1" r:id="rId1"/>
@@ -113,11 +118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,13 +131,22 @@
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,27 +539,27 @@
   <dimension ref="B3:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="21.75">
+    <row r="3" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="21.75">
+    <row r="4" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -633,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="21.75">
+    <row r="5" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B5" s="4">
         <v>1003</v>
       </c>
@@ -665,7 +679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="21.75">
+    <row r="6" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>1004</v>
       </c>
@@ -697,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="21.75">
+    <row r="7" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B7" s="4">
         <v>1005</v>
       </c>
@@ -741,7 +755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="21.75">
+    <row r="8" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B8" s="2">
         <v>1007</v>
       </c>
@@ -785,8 +799,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1"/>
-    <row r="11" spans="2:15" ht="21.75">
+    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -796,7 +810,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:15" ht="21.75">
+    <row r="12" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -806,7 +820,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:15" ht="21.75">
+    <row r="13" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -816,7 +830,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:15" ht="21.75">
+    <row r="14" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -826,7 +840,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:15" ht="21.75">
+    <row r="15" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -836,7 +850,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:15" ht="21.75">
+    <row r="16" spans="2:15" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -846,7 +860,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" ht="21.75">
+    <row r="17" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -856,7 +870,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" ht="21.75">
+    <row r="18" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -866,7 +880,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" ht="21.75">
+    <row r="19" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -876,64 +890,64 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1"/>
-    <row r="22" spans="2:9" ht="21.75">
+    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:9" ht="21.75">
+    <row r="23" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:9" ht="21.75">
+    <row r="24" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:9" ht="21.75">
+    <row r="25" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:9" ht="21.75">
+    <row r="26" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:9" ht="21.75">
+    <row r="27" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:9" ht="21.75">
+    <row r="28" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:9" ht="21.75">
+    <row r="29" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:9" ht="21.75">
+    <row r="30" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -941,7 +955,9 @@
       <c r="G30" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -949,23 +965,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873829F-A42F-4DB0-AE27-2184E4650852}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21.75">
+    <row r="2" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="21.75">
+    <row r="3" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B3" s="2">
         <v>1001</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="21.75">
+    <row r="4" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B4" s="2">
         <v>1002</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21.75">
+    <row r="5" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B5" s="4">
         <v>1003</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21.75">
+    <row r="6" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>1004</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="21.75">
+    <row r="7" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B7" s="4">
         <v>1005</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="21.75">
+    <row r="8" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B8" s="4">
         <v>1006</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="21.75">
+    <row r="9" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B9" s="2">
         <v>1007</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="21.75">
+    <row r="10" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B10" s="2">
         <v>1008</v>
       </c>
@@ -1200,6 +1214,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1208,24 +1223,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED10F85-CA93-440D-9D9F-84E76640E625}">
   <dimension ref="B1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="21.75">
+    <row r="2" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="21.75">
+    <row r="3" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B3" s="2">
         <v>1001</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="21.75">
+    <row r="4" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B4" s="2">
         <v>1002</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="21.75">
+    <row r="5" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B5" s="4">
         <v>1003</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="21.75">
+    <row r="6" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>1004</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="21.75">
+    <row r="7" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B7" s="4">
         <v>1005</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="21.75">
+    <row r="8" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B8" s="4">
         <v>1006</v>
       </c>
@@ -1436,7 +1451,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:13" ht="21.75">
+    <row r="9" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B9" s="2">
         <v>1007</v>
       </c>
@@ -1458,7 +1473,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:13" ht="21.75">
+    <row r="10" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B10" s="2">
         <v>1008</v>
       </c>
@@ -1482,11 +1497,12 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="13" spans="2:13" ht="21.75">
+    <row r="13" spans="2:13" ht="21.6" x14ac:dyDescent="0.6">
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>